--- a/pred_ohlcv/54_21/2019-10-26 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>564.8502093700002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>568.0420093700002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>568.0956093700001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>567.3156093700002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>567.3426093700002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>566.3426093700002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>566.5667743500002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -808,7 +808,7 @@
         <v>588.6794919300002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>578.6126919300002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>588.3916415200002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>601.2312415200001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>601.4254415200002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>598.5385415200002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>709.5172415200002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>709.9842415200003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>729.9277415200003</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>733.1078415200002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>745.4642919300002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>746.8195919300002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>747.4195919300003</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>748.4195919300003</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>778.2290919300002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>686.2816919300002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>738.9267919300001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>725.7803919300002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>725.8178919300002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>698.1241919300002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>701.2284919300001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>701.4684919300001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>701.4584919300002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>691.7327919300002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>408.47481013</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>370.4204101300001</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>370.32041013</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>379.32041013</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>379.32041013</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>564.8502093700002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>569.0420093700002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>568.0420093700002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>568.0956093700001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>567.3156093700002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>567.3426093700002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>566.3426093700002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>566.5667743500002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -808,7 +808,7 @@
         <v>588.6794919300002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>578.6126919300002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>588.3916415200002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>601.2312415200001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>601.4254415200002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>598.5385415200002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>709.5172415200002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>709.9842415200003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>729.9277415200003</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>733.1078415200002</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>745.4642919300002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>746.8195919300002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>747.4195919300003</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>748.4195919300003</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>778.2290919300002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>686.2816919300002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>639.3268919300001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>745.7669919300001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>738.9267919300001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>725.7803919300002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>725.8178919300002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>698.1241919300002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>701.4684919300001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>701.4584919300002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>379.32041013</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>359.32141013</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
